--- a/biology/Botanique/Parc_de_Tuira/Parc_de_Tuira.xlsx
+++ b/biology/Botanique/Parc_de_Tuira/Parc_de_Tuira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de Tuira (finnois : Tuiranpuisto) est un espace vert du quartier de Tuira à Oulu en Finlande[1] .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de Tuira (finnois : Tuiranpuisto) est un espace vert du quartier de Tuira à Oulu en Finlande .
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone du parc initialement réservée à l'hôpital de la ville d'Oulu est presque naturelle, à l'exception des bâtiments anciens. 
 Le parc est entouré d'un sentier de randonnée qui, en hiver, est une des pistes de ski entretenues par la ville.
@@ -543,7 +557,9 @@
           <t>Bâtiments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les anciens bâtiments de l'hopital sont protégés.
 Crèche de Lassi, Magnus Schjerfbeck, (1896-1900)
@@ -580,7 +596,9 @@
           <t>Vues du parc</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
